--- a/biology/Médecine/Syndrome_frontal/Syndrome_frontal.xlsx
+++ b/biology/Médecine/Syndrome_frontal/Syndrome_frontal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome frontal est un syndrome en neurologie résultant de lésions ou de dysfonctionnement du lobe frontal. Les lésions peuvent être causées par divers troubles (AVC, tumeur, traumatisme, maladie neurodégénérative…). Les lobes frontaux intervenant dans les fonctions exécutives, ce syndrome s'exprime par des troubles cognitifs spécifiques. 
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le syndrome frontal est l'association de plusieurs signes cliniques observés lors des lésions de la partie antérieure du lobe frontal (AVC, tumeur, traumatisme). Il est possible de classer ces symptômes en plusieurs catégories :
 troubles comportementaux ;
@@ -544,7 +558,9 @@
           <t>Troubles comportementaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la lésion, chez l'individu atteint du syndrome frontal deux types de troubles comportementaux diamétralement opposés sont possibles :
 syndrome frontal de type inhibé. On observe une hypoactivité globale qui se manifeste par une aboulie, une apathie et une aspontanéité. Le discours est réduit, le malade n'initie jamais une conversation ;
@@ -578,7 +594,9 @@
           <t>Troubles cognitifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces troubles ne peuvent être mis en évidence que chez les patients peu touchés, capables de comprendre les consignes : 
 perte de l'abstraction ;
@@ -614,7 +632,9 @@
           <t>Autres troubles neurologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anosognosie
 Troubles du comportement (social, alimentaire, sexuel, affectif)
